--- a/input/sample.xlsx
+++ b/input/sample.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duong.nguyenhoang\OneDrive\Desktop\Project\Personal\tran-excel-feature-add-import-file-UI\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Codes\Gits\ai-excel-translator\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B745AA34-253B-4A69-A565-5363A2513A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1574AE-9994-46C6-94CD-086B2D37425F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24804" yWindow="1800" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,27 +27,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>こんにちは</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>これはシート2です</t>
+  </si>
+  <si>
+    <t>これはシート3です</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -451,14 +459,14 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="6:8">
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="6:8">
       <c r="H4" t="s">
         <v>0</v>
       </c>
@@ -468,4 +476,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F680F957-C760-4A9A-B56B-C211D8C67555}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D90343-1114-4551-A5FE-94BDA5B82853}">
+  <dimension ref="B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>